--- a/Sprint Backlog Template.xlsx
+++ b/Sprint Backlog Template.xlsx
@@ -39,13 +39,16 @@
     <t>As an unregistered user, I should be able to create an account.</t>
   </si>
   <si>
-    <t>Ahmed Ashraf</t>
+    <t>Bishoy</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
     <t>As a user, I should be able to edit my profile details.</t>
+  </si>
+  <si>
+    <t>Ahmed Ashraf</t>
   </si>
   <si>
     <t>As a user, I should be able to delete my account.</t>
@@ -78,9 +81,6 @@
     <t>As a partner or admin, I should be able to delete a task.</t>
   </si>
   <si>
-    <t>Bishoy</t>
-  </si>
-  <si>
     <t>As an admin, I should be able to create, update, or delete masterclasses for users to view,</t>
   </si>
   <si>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -119,11 +119,6 @@
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -157,18 +152,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -206,7 +202,6 @@
     <col customWidth="1" min="4" max="4" width="18.43"/>
     <col customWidth="1" min="5" max="5" width="21.14"/>
     <col customWidth="1" min="6" max="6" width="21.86"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -248,7 +243,7 @@
       <c r="C3" s="2">
         <v>1.0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -265,8 +260,8 @@
       <c r="C4" s="2">
         <v>1.0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>1.1</v>
@@ -277,13 +272,13 @@
         <v>1.3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>1.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>1.1</v>
@@ -294,13 +289,13 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>3.0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>1.1</v>
@@ -311,7 +306,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -319,13 +314,13 @@
         <v>2.1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>1.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>9</v>
@@ -336,13 +331,13 @@
         <v>2.2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>1.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>2.1</v>
@@ -353,13 +348,13 @@
         <v>2.3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>1.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>2.1</v>
@@ -370,13 +365,13 @@
         <v>2.4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>1.0</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>2.1</v>
@@ -401,7 +396,7 @@
         <v>1.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
@@ -1459,7 +1454,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2460,7 +2455,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col customWidth="1" min="1" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
